--- a/grabDoll/config/item.xlsx
+++ b/grabDoll/config/item.xlsx
@@ -16,10 +16,250 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
-  <si>
-    <r>
-      <t>配置</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>对应图标</t>
+  </si>
+  <si>
+    <t>config_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+  </si>
+  <si>
+    <t>item_0001</t>
+  </si>
+  <si>
+    <t>item_0002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_0003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_0004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_0005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_0006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin_0001</t>
+  </si>
+  <si>
+    <t>skin_0002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置ID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文具</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手雷</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>98K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平底锅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>红色猫爪</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓝色猫爪</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓝宝宝</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说明</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新手物品</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鸡蛋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>还是新手物品</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随便什么的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能卖钱吧</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>决赛圈必用</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大神的东西</t>
     </r>
     <r>
       <rPr>
@@ -28,67 +268,30 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>ID</t>
-    </r>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>对应图标</t>
-  </si>
-  <si>
-    <t>config_id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>鸡蛋</t>
-  </si>
-  <si>
-    <t>img_factory_0</t>
-  </si>
-  <si>
-    <t>蓝宝宝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文具</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>手雷</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>98</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新手的垃圾</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四级防具</t>
     </r>
     <r>
       <rPr>
@@ -97,20 +300,79 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>K</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平底锅</t>
-    </r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你懂的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>皮肤</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金苹果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以开出数量不等的金币来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品的二级类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{gold:100,diamond:10}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>award</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品三级类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +399,13 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -174,11 +443,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,120 +750,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="30.125" customWidth="1"/>
+    <col min="8" max="8" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>20001</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>20002</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>20005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>20006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>20006</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>20003</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>20004</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>20005</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>20006</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="G9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>20007</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>20007</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>21001</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>21002</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/grabDoll/config/item.xlsx
+++ b/grabDoll/config/item.xlsx
@@ -348,10 +348,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{gold:100,diamond:10}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>使用参数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -368,11 +364,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>normal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>xType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>normal</t>
+    <t>{'gold':100,'diamond':[10,50],'20001':5}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -753,7 +753,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -778,7 +778,7 @@
         <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -787,7 +787,7 @@
         <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.15">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.15">
@@ -827,7 +827,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.15">
@@ -991,7 +991,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1037,7 +1037,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>

--- a/grabDoll/config/item.xlsx
+++ b/grabDoll/config/item.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>名字</t>
   </si>
@@ -374,6 +374,13 @@
   <si>
     <t>{'gold':100,'diamond':[10,50],'20001':5}</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare</t>
   </si>
 </sst>
 </file>
@@ -750,21 +757,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="30.125" customWidth="1"/>
-    <col min="8" max="8" width="48.25" customWidth="1"/>
+    <col min="4" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="30.125" customWidth="1"/>
+    <col min="9" max="9" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -780,17 +787,20 @@
       <c r="E1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
+      <c r="F1" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -807,16 +817,19 @@
         <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>20001</v>
       </c>
@@ -832,14 +845,17 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>20002</v>
       </c>
@@ -855,14 +871,17 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>20003</v>
       </c>
@@ -878,14 +897,17 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>20004</v>
       </c>
@@ -901,14 +923,17 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>20005</v>
       </c>
@@ -924,14 +949,17 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>20006</v>
       </c>
@@ -947,14 +975,17 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>20006</v>
       </c>
@@ -970,17 +1001,20 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>20007</v>
       </c>
@@ -996,14 +1030,17 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>21001</v>
       </c>
@@ -1019,14 +1056,17 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>21002</v>
       </c>
@@ -1042,10 +1082,13 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>36</v>
       </c>
     </row>

--- a/grabDoll/config/item.xlsx
+++ b/grabDoll/config/item.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>名字</t>
   </si>
@@ -381,6 +381,22 @@
   </si>
   <si>
     <t>rare</t>
+  </si>
+  <si>
+    <t>体力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'vit':100}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用可以获得体力100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -757,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -987,7 +1003,7 @@
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>20006</v>
+        <v>20007</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>37</v>
@@ -1016,7 +1032,7 @@
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>20007</v>
+        <v>20008</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
@@ -1042,16 +1058,16 @@
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>21001</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>20009</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1059,19 +1075,22 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>36</v>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>21002</v>
+        <v>21001</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>25</v>
@@ -1086,11 +1105,47 @@
         <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>36</v>
       </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>21002</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/grabDoll/config/item.xlsx
+++ b/grabDoll/config/item.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
   <si>
     <t>名字</t>
   </si>
@@ -396,6 +396,54 @@
   </si>
   <si>
     <t>box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级神器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时光水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>极寒水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆莱水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥数水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玲珑水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光辉水晶</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -773,14 +821,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="4" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="19.75" customWidth="1"/>
     <col min="8" max="8" width="30.125" customWidth="1"/>
@@ -1087,13 +1136,13 @@
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>21001</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>20010</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>46</v>
@@ -1104,48 +1153,308 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>36</v>
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
+        <v>20011</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>20012</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>20013</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>20014</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>20015</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>20016</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>20017</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>20018</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>20019</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>21001</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
         <v>21002</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="D23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="1"/>
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/grabDoll/config/item.xlsx
+++ b/grabDoll/config/item.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
   <si>
     <t>名字</t>
   </si>
@@ -444,6 +444,14 @@
   </si>
   <si>
     <t>光辉水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗之书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让娃娃重新战斗</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -821,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1376,7 +1384,7 @@
         <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>46</v>
@@ -1396,36 +1404,36 @@
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>21001</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>20020</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>21002</v>
+        <v>21001</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>25</v>
@@ -1440,21 +1448,47 @@
         <v>1</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="1"/>
+      <c r="A24" s="1">
+        <v>21002</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/grabDoll/config/item.xlsx
+++ b/grabDoll/config/item.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
   <si>
     <t>名字</t>
   </si>
@@ -344,114 +344,118 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>使用参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>award</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品三级类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'gold':100,'diamond':[10,50],'20001':5}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare</t>
+  </si>
+  <si>
+    <t>体力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'vit':100}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用可以获得体力100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级神器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时光水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>极寒水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆莱水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥数水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玲珑水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光辉水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗之书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让娃娃重新战斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>iType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>award</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>box</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品三级类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'gold':100,'diamond':[10,50],'20001':5}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rare</t>
-  </si>
-  <si>
-    <t>体力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'vit':100}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用可以获得体力100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>box</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法力水晶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>item</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级神器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时光水晶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>永恒水晶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智慧水晶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>极寒水晶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆莱水晶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥数水晶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玲珑水晶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌水晶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>光辉水晶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗之书</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让娃娃重新战斗</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -832,7 +836,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -858,10 +862,10 @@
         <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -870,7 +874,7 @@
         <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.15">
@@ -884,13 +888,13 @@
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -899,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.15">
@@ -913,7 +917,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -939,7 +943,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -965,7 +969,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -991,7 +995,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1017,7 +1021,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1043,7 +1047,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1069,7 +1073,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1084,7 +1088,7 @@
         <v>39</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.15">
@@ -1098,7 +1102,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -1118,13 +1122,13 @@
         <v>20009</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1136,10 +1140,10 @@
         <v>11</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.15">
@@ -1147,13 +1151,13 @@
         <v>20010</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1165,7 +1169,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.15">
@@ -1173,13 +1177,13 @@
         <v>20011</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1191,7 +1195,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.15">
@@ -1199,13 +1203,13 @@
         <v>20012</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1217,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.15">
@@ -1225,13 +1229,13 @@
         <v>20013</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1243,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.15">
@@ -1251,13 +1255,13 @@
         <v>20014</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1269,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.15">
@@ -1277,13 +1281,13 @@
         <v>20015</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1295,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.15">
@@ -1303,13 +1307,13 @@
         <v>20016</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1321,7 +1325,7 @@
         <v>11</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.15">
@@ -1329,13 +1333,13 @@
         <v>20017</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1347,7 +1351,7 @@
         <v>11</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.15">
@@ -1355,13 +1359,13 @@
         <v>20018</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1373,7 +1377,7 @@
         <v>11</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.15">
@@ -1381,13 +1385,13 @@
         <v>20019</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1399,7 +1403,7 @@
         <v>11</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.15">
@@ -1407,16 +1411,16 @@
         <v>20020</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>2</v>
@@ -1425,7 +1429,7 @@
         <v>11</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.15">
@@ -1439,7 +1443,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1465,7 +1469,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>

--- a/grabDoll/config/item.xlsx
+++ b/grabDoll/config/item.xlsx
@@ -836,7 +836,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/grabDoll/config/item.xlsx
+++ b/grabDoll/config/item.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
   <si>
     <t>名字</t>
   </si>
@@ -457,6 +457,18 @@
   <si>
     <t>iType</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_0002</t>
+  </si>
+  <si>
+    <t>item_0003</t>
+  </si>
+  <si>
+    <t>item_0004</t>
+  </si>
+  <si>
+    <t>item_0005</t>
   </si>
 </sst>
 </file>
@@ -836,7 +848,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1166,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>56</v>
@@ -1192,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>56</v>
@@ -1218,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>56</v>
@@ -1244,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>56</v>
@@ -1270,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>56</v>
@@ -1322,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>56</v>
@@ -1348,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>56</v>
@@ -1374,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>56</v>
@@ -1400,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>56</v>
